--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -1,201 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jiangwu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44FE7F2-81BC-402D-8CE6-B0B5478BFF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E879B054-16B1-44B5-B34F-61BED3C1A57C}"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>故障问题简述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障/问题发现时间节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否进行维修</t>
   </si>
   <si>
     <t>维修次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否属于返修</t>
+  </si>
+  <si>
+    <t>现场查看维修情况</t>
   </si>
   <si>
     <t>维修耗费时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进维修站日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出维修站日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否进行维修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>告知维修好了却还存在的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复查遗留问题</t>
+  </si>
+  <si>
+    <t>复查时间</t>
+  </si>
+  <si>
+    <t>建议处理措施</t>
+  </si>
+  <si>
+    <t>多收费用未退还</t>
+  </si>
+  <si>
+    <t>费用尚未退还</t>
+  </si>
+  <si>
+    <t>申请工商、税务进入调查</t>
   </si>
   <si>
     <t>保险维修（可参阅保险上传的照片）
 倒车过程被路牙刮伤轮眉及前唇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>去肇庆办理车牌的时候
 2019年1月24日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被“谢佳宝”告知车辆维修好了接车时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否属于返修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1天（不足一天按一天算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.轮眉卡扣使用废旧物料，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.轮眉未修复
 2.被告知车牌被洗车时弄变形，还卡有抹布。
 3.车辆有油漆污渍
 4.引擎盖有凹陷（后期对比同车型发现）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场查看维修情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆未维修好返修</t>
+  </si>
+  <si>
+    <t>被“谢佳宝”告知车辆维修好了接车时</t>
   </si>
   <si>
     <t>1.找来了废旧卡扣修复轮眉
 2.使用了某种喷剂清晰了油漆污渍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复查遗留问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复查时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天（不足一天按一天算）</t>
+  </si>
+  <si>
+    <t>1.轮眉卡扣使用废旧物料，</t>
   </si>
   <si>
     <t>使用废旧物料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多收费用未退还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用尚未退还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议处理措施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请工商、税务进入调查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达故障（提示雷达失明），对比引擎盖凹陷是否原厂用于指示开启引擎盖的装置点</t>
   </si>
   <si>
     <t>清明放假回家发现，导航无法使用、语音功能无法使用、360全景故障，转向监控故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>清明假期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被售后“李仕林”告知买车、修车需要靠运气；检查软件多显示故障（红色），李仕林告知车辆没有故障；有维修负责人说车辆能开就是好的。</t>
+  </si>
+  <si>
+    <t>保养，语音控制车窗开关有时候个别车窗没反应</t>
   </si>
   <si>
     <t>1.车窗贴膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷达故障（提示雷达失明），对比引擎盖凹陷是否原厂用于指示开启引擎盖的装置点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保养，语音控制车窗开关有时候个别车窗没反应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>语音控制车窗依然有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆未维修好返修</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车辆自动驾驶出现车道严重偏离，保养后油耗异常高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车内门皮开缝脱落，后排座椅主子缝隙过大；修复引擎盖凹陷问题，处理遗留问题油耗过高及其他遗留问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被售后“李仕林”告知买车、修车需要靠运气；检查软件多显示故障（红色），李仕林告知车辆没有故障；有维修负责人说车辆能开就是好的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.门皮更换中（拆卸过程有损伤“划痕”）
 2.缝隙过大问题未修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半个月有余</t>
   </si>
   <si>
     <t>1.车窗关闭后有颤抖
 2.缝隙过大问题未处理好
 3.门皮跟换后不是完好的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.车窗关闭后有玻璃颤抖
@@ -204,39 +151,373 @@
 4.语音识别基本用不了
 5.导航异常，道路情况查看不了
 6.音乐几乎播放不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,9 +525,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -261,17 +784,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -320,7 +887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -353,26 +920,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -405,23 +955,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,374 +1096,372 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C4DADF-F02E-480A-A613-EF583347A898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="29.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="27.625" customWidth="1"/>
     <col min="12" max="12" width="31.5" customWidth="1"/>
-    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M2" s="2">
         <v>43780</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="91.5" customHeight="1" spans="1:11">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="55.5" customHeight="1" spans="1:13">
       <c r="A4">
         <f t="shared" ref="A4:A28" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M4" s="2">
         <v>43780</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="55.5" customHeight="1" spans="1:13">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" ht="96" customHeight="1" spans="1:13">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="53.25" customHeight="1" spans="1:13">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2">
         <v>43780</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="28.5" spans="1:2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="85.5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="85.5" spans="1:13">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" s="2">
         <v>43780</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>